--- a/Output File.xlsx
+++ b/Output File.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>NSE_Ticker</t>
   </si>
@@ -142,10 +142,16 @@
     <t>ACC</t>
   </si>
   <si>
+    <t>MM</t>
+  </si>
+  <si>
     <t>Hello</t>
   </si>
   <si>
     <t>Bank</t>
+  </si>
+  <si>
+    <t>Car Manufacturer</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AN4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +646,7 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>42919</v>
@@ -762,7 +768,7 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>42919</v>
@@ -876,6 +882,128 @@
         <v>0</v>
       </c>
       <c r="AN3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42920</v>
+      </c>
+      <c r="D4">
+        <v>1365</v>
+      </c>
+      <c r="E4">
+        <v>1355.15</v>
+      </c>
+      <c r="F4">
+        <v>1385</v>
+      </c>
+      <c r="G4">
+        <v>1376</v>
+      </c>
+      <c r="H4">
+        <v>1390.15</v>
+      </c>
+      <c r="I4">
+        <v>1416.5</v>
+      </c>
+      <c r="J4">
+        <v>1264.3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>43285</v>
+      </c>
+      <c r="L4">
+        <v>895</v>
+      </c>
+      <c r="M4">
+        <v>900.1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>43104</v>
+      </c>
+      <c r="O4">
+        <v>761</v>
+      </c>
+      <c r="P4">
+        <v>756</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>32874</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>32874</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>32874</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>32874</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>32874</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>32874</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>32874</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>32874</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
         <v>0</v>
       </c>
     </row>
